--- a/DBCLI/testbase.xlsx
+++ b/DBCLI/testbase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundi\Desktop\DBCLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB74AC-3F7D-4B1C-A0BF-0E34ED449944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B7AA9-3530-445B-8AA6-8B89D3022258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>DATUM</t>
   </si>
   <si>
-    <t>Brzić</t>
-  </si>
-  <si>
     <t>Nanko</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Kriza u luci Shenzen</t>
+  </si>
+  <si>
+    <t>Rumenko</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -485,114 +485,114 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>213</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DBCLI/testbase.xlsx
+++ b/DBCLI/testbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundi\Desktop\DBCLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B7AA9-3530-445B-8AA6-8B89D3022258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B8766-F330-476C-93ED-90ABDD466960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>421</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>

--- a/DBCLI/testbase.xlsx
+++ b/DBCLI/testbase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,41 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Plisetsky</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diplomski</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Baletni ples</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>22.12.2021.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
